--- a/solutions/src/grokkingpattern/GrokkingPatterns.xlsx
+++ b/solutions/src/grokkingpattern/GrokkingPatterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plukka/personal/personal/Learning/coding-pattern-grokking/solutions/src/grokkingpattern/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47475AA2-D9FF-4041-B681-FF7151305E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3154CD-C6FD-9F43-A50B-288849F27382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{AAC370D2-5255-FB4C-86AA-8B29146D92C1}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Largest K Element in Array</t>
   </si>
@@ -221,7 +221,64 @@
     <t>https://www.geeksforgeeks.org/find-the-longest-substring-with-k-unique-characters-in-a-given-string/</t>
   </si>
   <si>
-    <t> longest substring with k unique characters in a given string</t>
+    <t>longest substring with k unique characters in a given string</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fruit-into-baskets/</t>
+  </si>
+  <si>
+    <t>Fruit Into Baskets</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/longest-substring-with-at-most-two-distinct-characters_3125863</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>solved</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-repeating-character-replacement/</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones-iii/</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-in-string/</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/</t>
+  </si>
+  <si>
+    <t>Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring/</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/substring-with-concatenation-of-all-words/</t>
+  </si>
+  <si>
+    <t>Substring with Concatenation of All Words</t>
   </si>
 </sst>
 </file>
@@ -809,16 +866,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADACE930-DAC0-EF42-A7B4-33F5C23D6195}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -839,6 +896,9 @@
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -847,6 +907,9 @@
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -855,6 +918,9 @@
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -863,6 +929,9 @@
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -870,6 +939,99 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -879,6 +1041,12 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{D8B85C2E-CB5F-194F-812F-6A01A44C7507}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{04091407-AD5A-C84F-84C4-EEC21DCE2441}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{7320D81D-B078-F74F-9609-17B82FCC2A5A}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{8F3AB048-5552-F94E-82F2-684725882AE3}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{8C104CC1-F3E3-4F4C-8356-3441AE531189}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{6824CBA3-2B67-ED4D-9D05-D24F4869D256}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{93FF811A-0F3B-744B-A402-7AFBE557ED72}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{B3D4D983-9F3B-4745-8974-E583AB537496}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{AD61FEE1-39EA-404F-91E3-0A2D45D9ADFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/solutions/src/grokkingpattern/GrokkingPatterns.xlsx
+++ b/solutions/src/grokkingpattern/GrokkingPatterns.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plukka/personal/personal/Learning/coding-pattern-grokking/solutions/src/grokkingpattern/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3154CD-C6FD-9F43-A50B-288849F27382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E8BA17-88D4-4A49-BD39-718109CE6E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{AAC370D2-5255-FB4C-86AA-8B29146D92C1}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{AAC370D2-5255-FB4C-86AA-8B29146D92C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Topk Elements" sheetId="1" r:id="rId1"/>
     <sheet name="Sliding Window" sheetId="2" r:id="rId2"/>
     <sheet name="BackTracking" sheetId="3" r:id="rId3"/>
     <sheet name="DP" sheetId="4" r:id="rId4"/>
-    <sheet name="DFS-BFS" sheetId="5" r:id="rId5"/>
+    <sheet name="Tree Problems" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
   <si>
     <t>Largest K Element in Array</t>
   </si>
@@ -280,6 +280,123 @@
   <si>
     <t>Substring with Concatenation of All Words</t>
   </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Question Link</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal-ii/</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/average-of-levels-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>Maximum Level Sum of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node/</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Path Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-ii/</t>
+  </si>
+  <si>
+    <t>Path Sum ||</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-paths/</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-root-to-leaf-numbers/</t>
+  </si>
+  <si>
+    <t>Sum Root to Leaf Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-iii/</t>
+  </si>
+  <si>
+    <t>Path Sum |||</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/diameter-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/level-order-successor-of-a-node-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Level Order Successor of a node in Binary Tree</t>
+  </si>
+  <si>
+    <t>Connect nodes at same level using constant extra space</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/connect-nodes-at-same-level-with-o1-extra-space/#</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/largest-value-level-binary-tree/</t>
+  </si>
 </sst>
 </file>
 
@@ -302,13 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF656D76"/>
       <name val="Calibri"/>
@@ -322,13 +432,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -344,14 +468,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -713,7 +840,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -724,7 +851,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -735,7 +862,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -746,7 +873,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -757,7 +884,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -768,7 +895,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -779,7 +906,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -790,7 +917,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -801,7 +928,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -812,7 +939,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -823,7 +950,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -831,7 +958,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -839,7 +966,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
@@ -868,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADACE930-DAC0-EF42-A7B4-33F5C23D6195}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,7 +1028,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -912,7 +1039,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -923,7 +1050,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -934,7 +1061,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -945,7 +1072,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -956,7 +1083,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -967,7 +1094,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
       <c r="B9" t="s">
@@ -978,7 +1105,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -989,7 +1116,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
       <c r="B11" t="s">
@@ -1000,7 +1127,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="B12" t="s">
@@ -1011,27 +1138,36 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1078,14 +1214,246 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2461D9C7-EC60-A44C-AF6C-AEF4A9ACDEE2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{917E950F-549E-F549-9C84-70C0AA943B11}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{4B93CC9E-38FB-A146-AABB-41320EE136FC}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{DC160E63-1B1A-A048-A2C0-9E9440866A2E}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{7F32E36D-324B-0146-805B-DEFA8769CB74}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{30A44ADB-BE98-C740-86C9-124F6C30AFEC}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{E8ABABA8-B9C4-394E-BDBA-EEC334061D96}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{5CE4E058-E91D-DE4E-966C-E7AFECDCCA78}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{70F0E738-8039-3346-9A5F-25D5DCDA54AB}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{00BBC751-AC43-6544-B0F3-108B3614182A}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{34ADD2FB-FD9B-8B4C-BA22-99B4A37DFF75}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{E47CE0E0-C7F5-D04F-8B82-716A09FE139D}"/>
+    <hyperlink ref="B6" r:id="rId12" xr:uid="{69C33E9E-F6E3-2147-8E72-97B90106BA73}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/solutions/src/grokkingpattern/GrokkingPatterns.xlsx
+++ b/solutions/src/grokkingpattern/GrokkingPatterns.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plukka/personal/personal/Learning/coding-pattern-grokking/solutions/src/grokkingpattern/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E8BA17-88D4-4A49-BD39-718109CE6E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8A90A9-2058-4F4B-B8CA-36BDD5B6D39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{AAC370D2-5255-FB4C-86AA-8B29146D92C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Topk Elements" sheetId="1" r:id="rId1"/>
     <sheet name="Sliding Window" sheetId="2" r:id="rId2"/>
-    <sheet name="BackTracking" sheetId="3" r:id="rId3"/>
-    <sheet name="DP" sheetId="4" r:id="rId4"/>
-    <sheet name="Tree Problems" sheetId="5" r:id="rId5"/>
+    <sheet name="BackTracking" sheetId="7" r:id="rId3"/>
+    <sheet name="Greedy" sheetId="3" r:id="rId4"/>
+    <sheet name="Graph" sheetId="8" r:id="rId5"/>
+    <sheet name="DP" sheetId="4" r:id="rId6"/>
+    <sheet name="Tree Problems" sheetId="5" r:id="rId7"/>
+    <sheet name="System Design" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="162">
   <si>
     <t>Largest K Element in Array</t>
   </si>
@@ -396,6 +399,186 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/largest-value-level-binary-tree/</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WE9c9AZe-DY</t>
+  </si>
+  <si>
+    <t>A scalable chat application on phone browsing</t>
+  </si>
+  <si>
+    <t>Leet Code</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/124613/Amazon-or-System-Design-or-A-scalable-chat-application-on-phone-browsing</t>
+  </si>
+  <si>
+    <t>recently viewed items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shekhargulati.com/2019/09/05/system-design-design-the-amazon-recently-viewed-items-page-api/ </t>
+  </si>
+  <si>
+    <t>https://medium.com/walmartlabs/an-approach-to-designing-distributed-fault-tolerant-horizontally-scalable-event-scheduler-278c9c380637</t>
+  </si>
+  <si>
+    <t>Design-a-JobTask-Scheduler</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/344524/Amazon-or-Design-a-JobTask-Scheduler</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets/</t>
+  </si>
+  <si>
+    <t> https://leetcode.com/problems/subsets-ii/</t>
+  </si>
+  <si>
+    <t>Subset</t>
+  </si>
+  <si>
+    <t>Subset II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations/</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations-ii/</t>
+  </si>
+  <si>
+    <t>Permutations II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum/</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>Combination Sum ||</t>
+  </si>
+  <si>
+    <t>Combination Sum |||</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-partitioning/</t>
+  </si>
+  <si>
+    <t>Palindrome partitioning</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distinct-subsequences/</t>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/n-queens/</t>
+  </si>
+  <si>
+    <t>N Queens</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/restore-ip-addresses/</t>
+  </si>
+  <si>
+    <t>Restore IP address</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Given n pairs of parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combinations/</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/word-break-ii/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/combination-sum-iii </t>
+  </si>
+  <si>
+    <t>generate anagrams of a Given String using same structure</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-a-sequence-of-words-print-all-anagrams-together/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game/</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/gas-station/</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lemonade-change/</t>
+  </si>
+  <si>
+    <t>Lemonade change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/jump-game-ii/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candy </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/candy/</t>
+  </si>
+  <si>
+    <t>Network Delay Time</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/network-delay-time/</t>
   </si>
 </sst>
 </file>
@@ -468,17 +651,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -797,7 +978,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,7 +1177,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,18 +1370,331 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533F698-4E56-7C4D-992C-DE30BEFBB76F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF4D5A5-5097-874F-8C62-BFC2077AA6E1}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E27824DE-51F7-174C-8856-277A16F4FCB0}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://leetcode.com/problems/subsets-ii/" xr:uid="{AA2352AD-3B75-5D42-85A0-86E605B83469}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{4A43C6F9-B699-0F40-A3D6-4248F57B4687}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{70EAFF18-72AF-A44A-B783-CA30DC0B08DD}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{8786BA81-A611-4C4B-8184-C9DF18BC0375}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{40A45789-DA60-824E-8109-BC470FBEC0CA}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{770C1AE3-93C5-4646-A349-B1F7AEA59D04}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{C5984D8E-0D29-7340-AFA5-AC57DAE55F96}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{458A8C00-58AC-D943-A860-A87E2CEF5D91}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{6977C878-81B7-334F-9D63-6BDA37784036}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{3CD06BFC-F30C-3840-9A8D-55FF1ADE80D2}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{08FCAA97-945A-7843-B461-6FAEBF0B4A24}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{7D82C5FA-2307-6940-A533-579322198815}"/>
+    <hyperlink ref="B13" r:id="rId14" xr:uid="{0C83B4BA-4D24-5445-8DBF-95A276067994}"/>
+    <hyperlink ref="B8" r:id="rId15" xr:uid="{D8EB04EC-ED73-5743-86DF-0DE8C5C5744B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533F698-4E56-7C4D-992C-DE30BEFBB76F}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1811F077-6255-164C-92E2-DDB9B8040F18}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{6391AD38-748B-AB45-A8A5-48CFDF3A0ACE}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{6360AB75-F0D6-164F-BF4E-A912965C6BFA}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{74B8FB35-5486-7C43-AB7E-5EBB4587356E}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{20EE833E-EC5A-ED47-BABF-0473D3B11EDC}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{3B402469-68C5-464F-95FB-E78E3B8D06C9}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{0D53A97E-4390-AF44-B892-AE366D78AAEE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693D2B7F-722B-5043-87E1-95A397AA3728}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871214E-7E97-1A4F-B696-68661454311F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1212,12 +1706,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2461D9C7-EC60-A44C-AF6C-AEF4A9ACDEE2}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1776,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1293,7 +1787,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1304,7 +1798,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1315,7 +1809,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1326,7 +1820,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1337,7 +1831,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1345,7 +1839,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1353,7 +1847,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>83</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1364,14 +1858,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1382,7 +1876,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1393,7 +1887,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>90</v>
       </c>
       <c r="B17" t="s">
@@ -1404,7 +1898,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>92</v>
       </c>
       <c r="B18" t="s">
@@ -1415,7 +1909,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>94</v>
       </c>
       <c r="B19" t="s">
@@ -1426,7 +1920,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>96</v>
       </c>
       <c r="B20" t="s">
@@ -1456,4 +1950,77 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550EB717-8578-5142-9F44-0738C31910A8}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.6640625" customWidth="1"/>
+    <col min="4" max="4" width="116" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{80CAEF43-98F4-0140-B30F-C6BE7D55E6A3}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{C9F2705A-3291-E54F-8CB4-7478AC6628CC}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{C2CA4953-6EBA-954C-91A4-DB9052B9A088}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{C4654A51-A6A9-3D43-A942-96E48C57DB80}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/solutions/src/grokkingpattern/GrokkingPatterns.xlsx
+++ b/solutions/src/grokkingpattern/GrokkingPatterns.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plukka/personal/personal/Learning/coding-pattern-grokking/solutions/src/grokkingpattern/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8A90A9-2058-4F4B-B8CA-36BDD5B6D39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510A742C-CA2A-B84A-BAEF-D76712B6715F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{AAC370D2-5255-FB4C-86AA-8B29146D92C1}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="8" xr2:uid="{AAC370D2-5255-FB4C-86AA-8B29146D92C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Topk Elements" sheetId="1" r:id="rId1"/>
     <sheet name="Sliding Window" sheetId="2" r:id="rId2"/>
     <sheet name="BackTracking" sheetId="7" r:id="rId3"/>
-    <sheet name="Greedy" sheetId="3" r:id="rId4"/>
-    <sheet name="Graph" sheetId="8" r:id="rId5"/>
-    <sheet name="DP" sheetId="4" r:id="rId6"/>
-    <sheet name="Tree Problems" sheetId="5" r:id="rId7"/>
+    <sheet name="Tree Problems" sheetId="5" r:id="rId4"/>
+    <sheet name="Greedy" sheetId="3" r:id="rId5"/>
+    <sheet name="Graph" sheetId="8" r:id="rId6"/>
+    <sheet name="DP" sheetId="4" r:id="rId7"/>
     <sheet name="System Design" sheetId="6" r:id="rId8"/>
+    <sheet name="Activitiy" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="180">
   <si>
     <t>Largest K Element in Array</t>
   </si>
@@ -579,6 +580,60 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/network-delay-time/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reconstruct-itinerary/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-operations-to-make-array-continuous/</t>
+  </si>
+  <si>
+    <t>Minimum Number of Operations to Make Array Continuous</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-prefix/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-for-tickets/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-path-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-unreachable-pairs-of-nodes-in-an-undirected-graph/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-operations-to-make-network-connected/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-score-of-a-path-between-two-cities/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-sudoku/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-insert-position/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/divide-two-integers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/numbers-with-repeated-digits/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-zero-filled-subarrays/</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1033,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADACE930-DAC0-EF42-A7B4-33F5C23D6195}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1349,6 +1404,14 @@
       </c>
       <c r="C15" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1364,6 +1427,7 @@
     <hyperlink ref="B13" r:id="rId9" xr:uid="{93FF811A-0F3B-744B-A402-7AFBE557ED72}"/>
     <hyperlink ref="B14" r:id="rId10" xr:uid="{B3D4D983-9F3B-4745-8974-E583AB537496}"/>
     <hyperlink ref="B15" r:id="rId11" xr:uid="{AD61FEE1-39EA-404F-91E3-0A2D45D9ADFC}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{10B35F78-4572-8C4F-9BE2-BA425DEAD0AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1569,144 +1633,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533F698-4E56-7C4D-992C-DE30BEFBB76F}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1811F077-6255-164C-92E2-DDB9B8040F18}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{6391AD38-748B-AB45-A8A5-48CFDF3A0ACE}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{6360AB75-F0D6-164F-BF4E-A912965C6BFA}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{74B8FB35-5486-7C43-AB7E-5EBB4587356E}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{20EE833E-EC5A-ED47-BABF-0473D3B11EDC}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{3B402469-68C5-464F-95FB-E78E3B8D06C9}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{0D53A97E-4390-AF44-B892-AE366D78AAEE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693D2B7F-722B-5043-87E1-95A397AA3728}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871214E-7E97-1A4F-B696-68661454311F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2461D9C7-EC60-A44C-AF6C-AEF4A9ACDEE2}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -1952,6 +1878,152 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0533F698-4E56-7C4D-992C-DE30BEFBB76F}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1811F077-6255-164C-92E2-DDB9B8040F18}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{6391AD38-748B-AB45-A8A5-48CFDF3A0ACE}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{6360AB75-F0D6-164F-BF4E-A912965C6BFA}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{74B8FB35-5486-7C43-AB7E-5EBB4587356E}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{20EE833E-EC5A-ED47-BABF-0473D3B11EDC}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{3B402469-68C5-464F-95FB-E78E3B8D06C9}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{0D53A97E-4390-AF44-B892-AE366D78AAEE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693D2B7F-722B-5043-87E1-95A397AA3728}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{74CC5D01-5400-A240-9110-87ECC65AFA09}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8871214E-7E97-1A4F-B696-68661454311F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550EB717-8578-5142-9F44-0738C31910A8}">
   <dimension ref="A1:D4"/>
@@ -2023,4 +2095,102 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F305D0F-06A6-AD4E-BBDD-EE3728F298EE}">
+  <dimension ref="B2:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="77.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>